--- a/spar_excel/spar_produkti.xlsx
+++ b/spar_excel/spar_produkti.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Številka izdelka</t>
   </si>
@@ -77,42 +77,6 @@
   </si>
   <si>
     <t>Sol</t>
-  </si>
-  <si>
-    <t>https://www.spar.si/online/pivo-rocket-queen-ipa-green-gold-brewing-033l/p/555302</t>
-  </si>
-  <si>
-    <t>PIVO ROCKET QUEEN, IPA, GREEN GOLD BREWING, 0,33L</t>
-  </si>
-  <si>
-    <t>Svetlo nefiltrirano in nepasterizirano pivo.</t>
-  </si>
-  <si>
-    <t>voda,  hmelj,  kvas,  JEČMENOV SLAD.</t>
-  </si>
-  <si>
-    <t>GLUTEN.</t>
-  </si>
-  <si>
-    <t>6,90 vol. %</t>
-  </si>
-  <si>
-    <t>0,33l</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>https://www.spar.si/online/tablete-all-in-1-lemon-somat-651/p/555300</t>
-  </si>
-  <si>
-    <t>TABLETE ALL IN 1 LEMON, SOMAT, 65/1</t>
-  </si>
-  <si>
-    <t>5-15 % belila na osnovi kisikafosfonatipolikarboksilati&lt; 5 % neionske površinsko aktivne snoviNadaljnje sestavine encimiparfumiLimonene.</t>
-  </si>
-  <si>
-    <t>65kos</t>
   </si>
 </sst>
 </file>
@@ -489,7 +453,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:V1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
@@ -558,67 +522,6 @@
       </c>
       <c r="V1" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>555302</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2">
-        <v>2.59</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>555300</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3">
-        <v>9.99</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="I3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
